--- a/Project_Group_Info.xlsx
+++ b/Project_Group_Info.xlsx
@@ -397,20 +397,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>S.No.</v>
+      </c>
+      <c r="B1" t="str">
+        <v>University Roll No</v>
+      </c>
+      <c r="C1" t="str">
         <v>Group ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Project Title</v>
-      </c>
-      <c r="C1" t="str">
-        <v>University Roll No</v>
       </c>
       <c r="D1" t="str">
         <v>Name</v>
@@ -419,52 +419,153 @@
         <v>Mobile No</v>
       </c>
       <c r="F1" t="str">
-        <v>Section</v>
+        <v>Email Id</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Project Title</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>345678</v>
+      </c>
+      <c r="C2" t="str">
         <v>G1</v>
       </c>
-      <c r="B2" t="str">
-        <v>kdlfsa;j</v>
-      </c>
-      <c r="C2" t="str">
-        <v>asdfasdf</v>
-      </c>
       <c r="D2" t="str">
-        <v>asdg</v>
+        <v>sdfghj</v>
       </c>
       <c r="E2" t="str">
-        <v>adsg</v>
+        <v>2345678</v>
       </c>
       <c r="F2" t="str">
-        <v>A</v>
+        <v>ghgfhf</v>
+      </c>
+      <c r="G2" t="str">
+        <v>sdfghjk</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>23456789</v>
+      </c>
+      <c r="C3" t="str">
         <v>G1</v>
       </c>
-      <c r="B3" t="str">
-        <v>kdlfsa;j</v>
-      </c>
-      <c r="C3" t="str">
-        <v>adsgdasg</v>
-      </c>
       <c r="D3" t="str">
-        <v>asdgasdg</v>
+        <v>iuytre</v>
       </c>
       <c r="E3" t="str">
-        <v>asdg</v>
+        <v>345678</v>
       </c>
       <c r="F3" t="str">
-        <v>A</v>
+        <v>dfghjk</v>
+      </c>
+      <c r="G3" t="str">
+        <v>sdfghjk</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>345678</v>
+      </c>
+      <c r="C4" t="str">
+        <v>G2</v>
+      </c>
+      <c r="D4" t="str">
+        <v>sdfghj</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2345678</v>
+      </c>
+      <c r="F4" t="str">
+        <v>ghgfhf</v>
+      </c>
+      <c r="G4" t="str">
+        <v>sdfghjk</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>23456789</v>
+      </c>
+      <c r="C5" t="str">
+        <v>G2</v>
+      </c>
+      <c r="D5" t="str">
+        <v>iuytre</v>
+      </c>
+      <c r="E5" t="str">
+        <v>345678</v>
+      </c>
+      <c r="F5" t="str">
+        <v>dfghjk</v>
+      </c>
+      <c r="G5" t="str">
+        <v>sdfghjk</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>4567</v>
+      </c>
+      <c r="C6" t="str">
+        <v>G3</v>
+      </c>
+      <c r="D6" t="str">
+        <v>fghj</v>
+      </c>
+      <c r="E6" t="str">
+        <v>5678</v>
+      </c>
+      <c r="F6" t="str">
+        <v>fhgj</v>
+      </c>
+      <c r="G6" t="str">
+        <v>tyfytfyhtf</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>656</v>
+      </c>
+      <c r="C7" t="str">
+        <v>G3</v>
+      </c>
+      <c r="D7" t="str">
+        <v>werty</v>
+      </c>
+      <c r="E7" t="str">
+        <v>5678</v>
+      </c>
+      <c r="F7" t="str">
+        <v>fghjk</v>
+      </c>
+      <c r="G7" t="str">
+        <v>tyfytfyhtf</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project_Group_Info.xlsx
+++ b/Project_Group_Info.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -563,9 +563,55 @@
         <v>tyfytfyhtf</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>433</v>
+      </c>
+      <c r="C8" t="str">
+        <v>G4</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Vinay Pratap Singh</v>
+      </c>
+      <c r="E8" t="str">
+        <v>06306190576</v>
+      </c>
+      <c r="F8" t="str">
+        <v>vinayaitm273209@gmail.com</v>
+      </c>
+      <c r="G8" t="str">
+        <v>ytuyyut</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>76576</v>
+      </c>
+      <c r="C9" t="str">
+        <v>G4</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Vinay Pratap Singh</v>
+      </c>
+      <c r="E9" t="str">
+        <v>06306190576</v>
+      </c>
+      <c r="F9" t="str">
+        <v>vinayaitm273209@gmail.com</v>
+      </c>
+      <c r="G9" t="str">
+        <v>ytuyyut</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G9"/>
   </ignoredErrors>
 </worksheet>
 </file>